--- a/Data Cleaning/review_justificationV2.xlsx
+++ b/Data Cleaning/review_justificationV2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/ottwardu_uwaterloo_ca/Documents/Documents/GitHub/Forecasting-Tournament/Data Cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3823AF3A-3CC0-4DE9-8604-55AE7D5E22A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{3823AF3A-3CC0-4DE9-8604-55AE7D5E22A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF8AD81A-BDF6-4683-960C-E9B275A0B88D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="review_justificationV2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">review_justificationV2!$A$1:$U$164</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="261">
   <si>
     <t>ResponseId</t>
   </si>
@@ -800,12 +814,15 @@
   </si>
   <si>
     <t xml:space="preserve">We employed a standard LSTM model to predict the values for the next 12-months. The model uses data from the past 4 months to predict values for the next 4 months, and we iterate this process to obtain the forecasts for the next 12 months (i.e., forecasts of the first 4 months are used as inputs for the next 4 months, and so on). </t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1330,7 +1347,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1639,16 +1677,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="8.85546875"/>
+    <col min="13" max="13" width="8.85546875"/>
+    <col min="17" max="17" width="8.85546875"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1709,8 +1752,11 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1742,6 +1788,7 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <f>IF(I2=J2, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L2">
@@ -1754,6 +1801,7 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <f>IF(M2=N2, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="P2">
@@ -1766,13 +1814,14 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <f>IF(Q2=R2, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1804,6 +1853,7 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <f t="shared" ref="K3:K66" si="0">IF(I3=J3, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L3">
@@ -1816,6 +1866,7 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">IF(M3=N3, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="P3">
@@ -1828,13 +1879,14 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <f t="shared" ref="S3:S66" si="2">IF(Q3=R3, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1866,6 +1918,7 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
@@ -1878,6 +1931,7 @@
         <v>0</v>
       </c>
       <c r="O4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P4">
@@ -1890,13 +1944,14 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1928,6 +1983,7 @@
         <v>1</v>
       </c>
       <c r="K5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
@@ -1940,6 +1996,7 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P5">
@@ -1952,13 +2009,14 @@
         <v>1</v>
       </c>
       <c r="S5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1990,6 +2048,7 @@
         <v>1</v>
       </c>
       <c r="K6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
@@ -2002,6 +2061,7 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P6">
@@ -2014,13 +2074,14 @@
         <v>1</v>
       </c>
       <c r="S6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2052,6 +2113,7 @@
         <v>1</v>
       </c>
       <c r="K7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
@@ -2064,6 +2126,7 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P7">
@@ -2076,13 +2139,14 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2114,6 +2178,7 @@
         <v>1</v>
       </c>
       <c r="K8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L8">
@@ -2126,6 +2191,7 @@
         <v>0</v>
       </c>
       <c r="O8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P8">
@@ -2138,13 +2204,14 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2176,6 +2243,7 @@
         <v>1</v>
       </c>
       <c r="K9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L9">
@@ -2188,6 +2256,7 @@
         <v>0</v>
       </c>
       <c r="O9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P9">
@@ -2200,13 +2269,14 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2238,6 +2308,7 @@
         <v>1</v>
       </c>
       <c r="K10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L10">
@@ -2250,6 +2321,7 @@
         <v>0</v>
       </c>
       <c r="O10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10">
@@ -2262,13 +2334,14 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2300,6 +2373,7 @@
         <v>1</v>
       </c>
       <c r="K11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L11">
@@ -2312,6 +2386,7 @@
         <v>0</v>
       </c>
       <c r="O11">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P11">
@@ -2324,13 +2399,14 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2362,6 +2438,7 @@
         <v>1</v>
       </c>
       <c r="K12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L12">
@@ -2374,6 +2451,7 @@
         <v>0</v>
       </c>
       <c r="O12">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P12">
@@ -2386,13 +2464,14 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2424,6 +2503,7 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L13">
@@ -2436,6 +2516,7 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P13">
@@ -2448,13 +2529,14 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2486,6 +2568,7 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L14">
@@ -2498,6 +2581,7 @@
         <v>0</v>
       </c>
       <c r="O14">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P14">
@@ -2510,13 +2594,14 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2548,6 +2633,7 @@
         <v>1</v>
       </c>
       <c r="K15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L15">
@@ -2560,6 +2646,7 @@
         <v>0</v>
       </c>
       <c r="O15">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P15">
@@ -2572,13 +2659,14 @@
         <v>0</v>
       </c>
       <c r="S15">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2610,6 +2698,7 @@
         <v>1</v>
       </c>
       <c r="K16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L16">
@@ -2622,6 +2711,7 @@
         <v>0</v>
       </c>
       <c r="O16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P16">
@@ -2634,6 +2724,7 @@
         <v>1</v>
       </c>
       <c r="S16">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T16">
@@ -2672,6 +2763,7 @@
         <v>1</v>
       </c>
       <c r="K17">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L17">
@@ -2684,6 +2776,7 @@
         <v>0</v>
       </c>
       <c r="O17">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P17">
@@ -2696,6 +2789,7 @@
         <v>1</v>
       </c>
       <c r="S17">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T17">
@@ -2734,6 +2828,7 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L18">
@@ -2746,6 +2841,7 @@
         <v>0</v>
       </c>
       <c r="O18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P18">
@@ -2758,6 +2854,7 @@
         <v>1</v>
       </c>
       <c r="S18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18">
@@ -2796,6 +2893,7 @@
         <v>0</v>
       </c>
       <c r="K19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L19">
@@ -2808,6 +2906,7 @@
         <v>0</v>
       </c>
       <c r="O19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P19">
@@ -2820,6 +2919,7 @@
         <v>1</v>
       </c>
       <c r="S19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19">
@@ -2858,6 +2958,7 @@
         <v>1</v>
       </c>
       <c r="K20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L20">
@@ -2870,6 +2971,7 @@
         <v>0</v>
       </c>
       <c r="O20">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P20">
@@ -2882,6 +2984,7 @@
         <v>1</v>
       </c>
       <c r="S20">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T20">
@@ -2920,6 +3023,7 @@
         <v>0</v>
       </c>
       <c r="K21">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L21">
@@ -2932,6 +3036,7 @@
         <v>0</v>
       </c>
       <c r="O21">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P21">
@@ -2944,6 +3049,7 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T21">
@@ -2982,6 +3088,7 @@
         <v>1</v>
       </c>
       <c r="K22">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L22">
@@ -2994,6 +3101,7 @@
         <v>0</v>
       </c>
       <c r="O22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P22">
@@ -3006,6 +3114,7 @@
         <v>1</v>
       </c>
       <c r="S22">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T22">
@@ -3044,6 +3153,7 @@
         <v>1</v>
       </c>
       <c r="K23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L23">
@@ -3056,6 +3166,7 @@
         <v>0</v>
       </c>
       <c r="O23">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P23">
@@ -3068,6 +3179,7 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T23">
@@ -3106,6 +3218,7 @@
         <v>1</v>
       </c>
       <c r="K24">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L24">
@@ -3118,6 +3231,7 @@
         <v>0</v>
       </c>
       <c r="O24">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P24">
@@ -3130,6 +3244,7 @@
         <v>1</v>
       </c>
       <c r="S24">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T24">
@@ -3168,6 +3283,7 @@
         <v>1</v>
       </c>
       <c r="K25">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L25">
@@ -3180,6 +3296,7 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P25">
@@ -3192,6 +3309,7 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T25">
@@ -3230,6 +3348,7 @@
         <v>1</v>
       </c>
       <c r="K26">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L26">
@@ -3242,6 +3361,7 @@
         <v>0</v>
       </c>
       <c r="O26">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P26">
@@ -3254,6 +3374,7 @@
         <v>0</v>
       </c>
       <c r="S26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T26">
@@ -3292,6 +3413,7 @@
         <v>0</v>
       </c>
       <c r="K27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L27">
@@ -3304,6 +3426,7 @@
         <v>0</v>
       </c>
       <c r="O27">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P27">
@@ -3316,6 +3439,7 @@
         <v>1</v>
       </c>
       <c r="S27">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T27">
@@ -3347,23 +3471,44 @@
       <c r="H28" t="s">
         <v>82</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3391,23 +3536,44 @@
       <c r="H29" t="s">
         <v>85</v>
       </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3435,23 +3601,44 @@
       <c r="H30" t="s">
         <v>85</v>
       </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3479,23 +3666,44 @@
       <c r="H31" t="s">
         <v>86</v>
       </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3530,6 +3738,7 @@
         <v>0</v>
       </c>
       <c r="K32">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L32">
@@ -3542,6 +3751,7 @@
         <v>0</v>
       </c>
       <c r="O32">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P32">
@@ -3554,6 +3764,7 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T32">
@@ -3592,6 +3803,7 @@
         <v>0</v>
       </c>
       <c r="K33">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L33">
@@ -3604,6 +3816,7 @@
         <v>0</v>
       </c>
       <c r="O33">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P33">
@@ -3616,6 +3829,7 @@
         <v>0</v>
       </c>
       <c r="S33">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T33">
@@ -3654,6 +3868,7 @@
         <v>0</v>
       </c>
       <c r="K34">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L34">
@@ -3666,6 +3881,7 @@
         <v>0</v>
       </c>
       <c r="O34">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P34">
@@ -3678,6 +3894,7 @@
         <v>0</v>
       </c>
       <c r="S34">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T34">
@@ -3716,6 +3933,7 @@
         <v>0</v>
       </c>
       <c r="K35">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L35">
@@ -3728,6 +3946,7 @@
         <v>0</v>
       </c>
       <c r="O35">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P35">
@@ -3740,6 +3959,7 @@
         <v>0</v>
       </c>
       <c r="S35">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T35">
@@ -3778,6 +3998,7 @@
         <v>0</v>
       </c>
       <c r="K36">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L36">
@@ -3790,6 +4011,7 @@
         <v>0</v>
       </c>
       <c r="O36">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P36">
@@ -3802,6 +4024,7 @@
         <v>0</v>
       </c>
       <c r="S36">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T36">
@@ -3840,6 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K37">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L37">
@@ -3852,6 +4076,7 @@
         <v>0</v>
       </c>
       <c r="O37">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P37">
@@ -3864,6 +4089,7 @@
         <v>0</v>
       </c>
       <c r="S37">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T37">
@@ -3895,23 +4121,44 @@
       <c r="H38" t="s">
         <v>92</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3939,23 +4186,44 @@
       <c r="H39" t="s">
         <v>93</v>
       </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
         <v>1</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3983,23 +4251,44 @@
       <c r="H40" t="s">
         <v>93</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40">
         <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4027,23 +4316,44 @@
       <c r="H41" t="s">
         <v>94</v>
       </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4078,6 +4388,7 @@
         <v>0</v>
       </c>
       <c r="K42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L42">
@@ -4090,6 +4401,7 @@
         <v>0</v>
       </c>
       <c r="O42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P42">
@@ -4102,6 +4414,7 @@
         <v>0</v>
       </c>
       <c r="S42">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T42">
@@ -4140,6 +4453,7 @@
         <v>0</v>
       </c>
       <c r="K43">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L43">
@@ -4152,6 +4466,7 @@
         <v>0</v>
       </c>
       <c r="O43">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P43">
@@ -4164,6 +4479,7 @@
         <v>0</v>
       </c>
       <c r="S43">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T43">
@@ -4202,6 +4518,7 @@
         <v>0</v>
       </c>
       <c r="K44">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L44">
@@ -4214,6 +4531,7 @@
         <v>0</v>
       </c>
       <c r="O44">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P44">
@@ -4226,6 +4544,7 @@
         <v>0</v>
       </c>
       <c r="S44">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T44">
@@ -4264,6 +4583,7 @@
         <v>0</v>
       </c>
       <c r="K45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L45">
@@ -4276,6 +4596,7 @@
         <v>0</v>
       </c>
       <c r="O45">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P45">
@@ -4288,6 +4609,7 @@
         <v>0</v>
       </c>
       <c r="S45">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T45">
@@ -4326,6 +4648,7 @@
         <v>0</v>
       </c>
       <c r="K46">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L46">
@@ -4338,6 +4661,7 @@
         <v>0</v>
       </c>
       <c r="O46">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P46">
@@ -4350,6 +4674,7 @@
         <v>0</v>
       </c>
       <c r="S46">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T46">
@@ -4388,6 +4713,7 @@
         <v>0</v>
       </c>
       <c r="K47">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L47">
@@ -4400,6 +4726,7 @@
         <v>0</v>
       </c>
       <c r="O47">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P47">
@@ -4412,6 +4739,7 @@
         <v>0</v>
       </c>
       <c r="S47">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T47">
@@ -4443,23 +4771,44 @@
       <c r="H48" t="s">
         <v>100</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4487,23 +4836,44 @@
       <c r="H49" t="s">
         <v>102</v>
       </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4531,23 +4901,44 @@
       <c r="H50" t="s">
         <v>102</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4575,23 +4966,44 @@
       <c r="H51" t="s">
         <v>104</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -4619,23 +5031,44 @@
       <c r="H52" t="s">
         <v>102</v>
       </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -4663,23 +5096,44 @@
       <c r="H53" t="s">
         <v>104</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4707,23 +5161,44 @@
       <c r="H54" t="s">
         <v>106</v>
       </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -4751,23 +5226,44 @@
       <c r="H55" t="s">
         <v>104</v>
       </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -4795,23 +5291,44 @@
       <c r="H56" t="s">
         <v>105</v>
       </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4839,23 +5356,44 @@
       <c r="H57" t="s">
         <v>105</v>
       </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4883,23 +5421,44 @@
       <c r="H58" t="s">
         <v>111</v>
       </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4927,23 +5486,44 @@
       <c r="H59" t="s">
         <v>114</v>
       </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>1</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4971,23 +5551,44 @@
       <c r="H60" t="s">
         <v>114</v>
       </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60">
         <v>1</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5022,6 +5623,7 @@
         <v>0</v>
       </c>
       <c r="K61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L61">
@@ -5034,6 +5636,7 @@
         <v>0</v>
       </c>
       <c r="O61">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P61">
@@ -5046,6 +5649,7 @@
         <v>0</v>
       </c>
       <c r="S61">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T61">
@@ -5084,6 +5688,7 @@
         <v>0</v>
       </c>
       <c r="K62">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L62">
@@ -5096,6 +5701,7 @@
         <v>0</v>
       </c>
       <c r="O62">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P62">
@@ -5108,6 +5714,7 @@
         <v>0</v>
       </c>
       <c r="S62">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T62">
@@ -5146,6 +5753,7 @@
         <v>0</v>
       </c>
       <c r="K63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L63">
@@ -5158,6 +5766,7 @@
         <v>0</v>
       </c>
       <c r="O63">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P63">
@@ -5170,6 +5779,7 @@
         <v>0</v>
       </c>
       <c r="S63">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T63">
@@ -5208,6 +5818,7 @@
         <v>0</v>
       </c>
       <c r="K64">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L64">
@@ -5220,6 +5831,7 @@
         <v>0</v>
       </c>
       <c r="O64">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P64">
@@ -5232,6 +5844,7 @@
         <v>0</v>
       </c>
       <c r="S64">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T64">
@@ -5270,6 +5883,7 @@
         <v>0</v>
       </c>
       <c r="K65">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L65">
@@ -5282,6 +5896,7 @@
         <v>0</v>
       </c>
       <c r="O65">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P65">
@@ -5294,6 +5909,7 @@
         <v>0</v>
       </c>
       <c r="S65">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T65">
@@ -5332,6 +5948,7 @@
         <v>0</v>
       </c>
       <c r="K66">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L66">
@@ -5344,6 +5961,7 @@
         <v>0</v>
       </c>
       <c r="O66">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P66">
@@ -5356,6 +5974,7 @@
         <v>0</v>
       </c>
       <c r="S66">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T66">
@@ -5394,6 +6013,7 @@
         <v>0</v>
       </c>
       <c r="K67">
+        <f t="shared" ref="K67:K130" si="3">IF(I67=J67, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L67">
@@ -5406,6 +6026,7 @@
         <v>0</v>
       </c>
       <c r="O67">
+        <f t="shared" ref="O67:O130" si="4">IF(M67=N67, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="P67">
@@ -5418,6 +6039,7 @@
         <v>0</v>
       </c>
       <c r="S67">
+        <f t="shared" ref="S67:S130" si="5">IF(Q67=R67, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="T67">
@@ -5456,6 +6078,7 @@
         <v>0</v>
       </c>
       <c r="K68">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L68">
@@ -5468,6 +6091,7 @@
         <v>0</v>
       </c>
       <c r="O68">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P68">
@@ -5480,6 +6104,7 @@
         <v>0</v>
       </c>
       <c r="S68">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T68">
@@ -5518,6 +6143,7 @@
         <v>0</v>
       </c>
       <c r="K69">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L69">
@@ -5530,6 +6156,7 @@
         <v>0</v>
       </c>
       <c r="O69">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P69">
@@ -5542,6 +6169,7 @@
         <v>0</v>
       </c>
       <c r="S69">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T69">
@@ -5580,6 +6208,7 @@
         <v>0</v>
       </c>
       <c r="K70">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L70">
@@ -5592,6 +6221,7 @@
         <v>0</v>
       </c>
       <c r="O70">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P70">
@@ -5604,6 +6234,7 @@
         <v>0</v>
       </c>
       <c r="S70">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T70">
@@ -5642,6 +6273,7 @@
         <v>0</v>
       </c>
       <c r="K71">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L71">
@@ -5654,6 +6286,7 @@
         <v>0</v>
       </c>
       <c r="O71">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P71">
@@ -5666,6 +6299,7 @@
         <v>0</v>
       </c>
       <c r="S71">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T71">
@@ -5704,6 +6338,7 @@
         <v>1</v>
       </c>
       <c r="K72">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L72">
@@ -5716,6 +6351,7 @@
         <v>0</v>
       </c>
       <c r="O72">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P72">
@@ -5728,6 +6364,7 @@
         <v>1</v>
       </c>
       <c r="S72">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T72">
@@ -5766,6 +6403,7 @@
         <v>1</v>
       </c>
       <c r="K73">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L73">
@@ -5778,6 +6416,7 @@
         <v>0</v>
       </c>
       <c r="O73">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P73">
@@ -5790,6 +6429,7 @@
         <v>1</v>
       </c>
       <c r="S73">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T73">
@@ -5828,6 +6468,7 @@
         <v>1</v>
       </c>
       <c r="K74">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L74">
@@ -5840,6 +6481,7 @@
         <v>0</v>
       </c>
       <c r="O74">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P74">
@@ -5852,6 +6494,7 @@
         <v>1</v>
       </c>
       <c r="S74">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T74">
@@ -5890,6 +6533,7 @@
         <v>1</v>
       </c>
       <c r="K75">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L75">
@@ -5902,6 +6546,7 @@
         <v>0</v>
       </c>
       <c r="O75">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P75">
@@ -5914,6 +6559,7 @@
         <v>1</v>
       </c>
       <c r="S75">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T75">
@@ -5952,6 +6598,7 @@
         <v>1</v>
       </c>
       <c r="K76">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L76">
@@ -5964,6 +6611,7 @@
         <v>0</v>
       </c>
       <c r="O76">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P76">
@@ -5976,6 +6624,7 @@
         <v>1</v>
       </c>
       <c r="S76">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T76">
@@ -6014,6 +6663,7 @@
         <v>1</v>
       </c>
       <c r="K77">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L77">
@@ -6026,6 +6676,7 @@
         <v>0</v>
       </c>
       <c r="O77">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P77">
@@ -6038,6 +6689,7 @@
         <v>0</v>
       </c>
       <c r="S77">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T77">
@@ -6076,6 +6728,7 @@
         <v>1</v>
       </c>
       <c r="K78">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L78">
@@ -6088,6 +6741,7 @@
         <v>0</v>
       </c>
       <c r="O78">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P78">
@@ -6100,6 +6754,7 @@
         <v>0</v>
       </c>
       <c r="S78">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T78">
@@ -6138,6 +6793,7 @@
         <v>1</v>
       </c>
       <c r="K79">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L79">
@@ -6150,6 +6806,7 @@
         <v>0</v>
       </c>
       <c r="O79">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P79">
@@ -6162,6 +6819,7 @@
         <v>0</v>
       </c>
       <c r="S79">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T79">
@@ -6200,6 +6858,7 @@
         <v>0</v>
       </c>
       <c r="K80">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L80">
@@ -6212,6 +6871,7 @@
         <v>0</v>
       </c>
       <c r="O80">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P80">
@@ -6224,6 +6884,7 @@
         <v>1</v>
       </c>
       <c r="S80">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T80">
@@ -6262,6 +6923,7 @@
         <v>0</v>
       </c>
       <c r="K81">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L81">
@@ -6274,6 +6936,7 @@
         <v>0</v>
       </c>
       <c r="O81">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P81">
@@ -6286,6 +6949,7 @@
         <v>1</v>
       </c>
       <c r="S81">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T81">
@@ -6324,6 +6988,7 @@
         <v>0</v>
       </c>
       <c r="K82">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L82">
@@ -6336,6 +7001,7 @@
         <v>0</v>
       </c>
       <c r="O82">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P82">
@@ -6348,6 +7014,7 @@
         <v>1</v>
       </c>
       <c r="S82">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T82">
@@ -6386,6 +7053,7 @@
         <v>1</v>
       </c>
       <c r="K83">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L83">
@@ -6398,6 +7066,7 @@
         <v>0</v>
       </c>
       <c r="O83">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P83">
@@ -6410,6 +7079,7 @@
         <v>0</v>
       </c>
       <c r="S83">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T83">
@@ -6448,6 +7118,7 @@
         <v>0</v>
       </c>
       <c r="K84">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L84">
@@ -6460,6 +7131,7 @@
         <v>0</v>
       </c>
       <c r="O84">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P84">
@@ -6472,6 +7144,7 @@
         <v>1</v>
       </c>
       <c r="S84">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T84">
@@ -6510,6 +7183,7 @@
         <v>0</v>
       </c>
       <c r="K85">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L85">
@@ -6522,6 +7196,7 @@
         <v>0</v>
       </c>
       <c r="O85">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P85">
@@ -6534,6 +7209,7 @@
         <v>1</v>
       </c>
       <c r="S85">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T85">
@@ -6572,6 +7248,7 @@
         <v>0</v>
       </c>
       <c r="K86">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L86">
@@ -6584,6 +7261,7 @@
         <v>0</v>
       </c>
       <c r="O86">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P86">
@@ -6596,6 +7274,7 @@
         <v>1</v>
       </c>
       <c r="S86">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T86">
@@ -6637,6 +7316,7 @@
         <v>0</v>
       </c>
       <c r="K87">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L87">
@@ -6649,6 +7329,7 @@
         <v>0</v>
       </c>
       <c r="O87">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P87">
@@ -6661,6 +7342,7 @@
         <v>1</v>
       </c>
       <c r="S87">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T87">
@@ -6699,6 +7381,7 @@
         <v>0</v>
       </c>
       <c r="K88">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L88">
@@ -6711,6 +7394,7 @@
         <v>0</v>
       </c>
       <c r="O88">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P88">
@@ -6723,6 +7407,7 @@
         <v>1</v>
       </c>
       <c r="S88">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T88">
@@ -6761,6 +7446,7 @@
         <v>0</v>
       </c>
       <c r="K89">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L89">
@@ -6773,6 +7459,7 @@
         <v>0</v>
       </c>
       <c r="O89">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P89">
@@ -6785,6 +7472,7 @@
         <v>1</v>
       </c>
       <c r="S89">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T89">
@@ -6823,6 +7511,7 @@
         <v>0</v>
       </c>
       <c r="K90">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L90">
@@ -6835,6 +7524,7 @@
         <v>0</v>
       </c>
       <c r="O90">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P90">
@@ -6847,6 +7537,7 @@
         <v>1</v>
       </c>
       <c r="S90">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T90">
@@ -6885,6 +7576,7 @@
         <v>0</v>
       </c>
       <c r="K91">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L91">
@@ -6897,6 +7589,7 @@
         <v>0</v>
       </c>
       <c r="O91">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P91">
@@ -6909,6 +7602,7 @@
         <v>1</v>
       </c>
       <c r="S91">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T91">
@@ -6947,6 +7641,7 @@
         <v>0</v>
       </c>
       <c r="K92">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L92">
@@ -6959,6 +7654,7 @@
         <v>0</v>
       </c>
       <c r="O92">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P92">
@@ -6971,6 +7667,7 @@
         <v>1</v>
       </c>
       <c r="S92">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T92">
@@ -7009,6 +7706,7 @@
         <v>0</v>
       </c>
       <c r="K93">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L93">
@@ -7021,6 +7719,7 @@
         <v>0</v>
       </c>
       <c r="O93">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P93">
@@ -7033,6 +7732,7 @@
         <v>1</v>
       </c>
       <c r="S93">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T93">
@@ -7071,6 +7771,7 @@
         <v>0</v>
       </c>
       <c r="K94">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L94">
@@ -7083,6 +7784,7 @@
         <v>0</v>
       </c>
       <c r="O94">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P94">
@@ -7095,6 +7797,7 @@
         <v>1</v>
       </c>
       <c r="S94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T94">
@@ -7126,23 +7829,44 @@
       <c r="H95" t="s">
         <v>166</v>
       </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
       </c>
       <c r="R95">
         <v>1</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -7170,23 +7894,44 @@
       <c r="H96" t="s">
         <v>166</v>
       </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
       </c>
       <c r="N96">
         <v>1</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
       </c>
       <c r="R96">
         <v>1</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -7214,22 +7959,40 @@
       <c r="H97" t="s">
         <v>171</v>
       </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
       </c>
       <c r="N97">
         <v>1</v>
       </c>
       <c r="O97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
         <v>1</v>
       </c>
       <c r="S97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T97">
         <v>0</v>
       </c>
     </row>
@@ -7258,23 +8021,44 @@
       <c r="H98" t="s">
         <v>22</v>
       </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
       <c r="J98">
         <v>1</v>
       </c>
       <c r="K98">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
       </c>
       <c r="R98">
         <v>0</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7302,23 +8086,44 @@
       <c r="H99" t="s">
         <v>22</v>
       </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
       <c r="S99">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7346,23 +8151,44 @@
       <c r="H100" t="s">
         <v>22</v>
       </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
       <c r="J100">
         <v>1</v>
       </c>
       <c r="K100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
       </c>
       <c r="R100">
         <v>0</v>
       </c>
       <c r="S100">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7390,23 +8216,44 @@
       <c r="H101" t="s">
         <v>22</v>
       </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
       </c>
       <c r="R101">
         <v>0</v>
       </c>
       <c r="S101">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -7434,23 +8281,44 @@
       <c r="H102" t="s">
         <v>22</v>
       </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
       <c r="J102">
         <v>1</v>
       </c>
       <c r="K102">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7478,23 +8346,44 @@
       <c r="H103" t="s">
         <v>22</v>
       </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
       <c r="J103">
         <v>1</v>
       </c>
       <c r="K103">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
       </c>
       <c r="R103">
         <v>0</v>
       </c>
       <c r="S103">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -7522,23 +8411,44 @@
       <c r="H104" t="s">
         <v>22</v>
       </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
       <c r="J104">
         <v>1</v>
       </c>
       <c r="K104">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
       </c>
       <c r="R104">
         <v>0</v>
       </c>
       <c r="S104">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -7566,23 +8476,44 @@
       <c r="H105" t="s">
         <v>22</v>
       </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
       <c r="J105">
         <v>1</v>
       </c>
       <c r="K105">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
       </c>
       <c r="R105">
         <v>0</v>
       </c>
       <c r="S105">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -7610,23 +8541,44 @@
       <c r="H106" t="s">
         <v>22</v>
       </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="K106">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
       </c>
       <c r="R106">
         <v>0</v>
       </c>
       <c r="S106">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -7654,23 +8606,44 @@
       <c r="H107" t="s">
         <v>181</v>
       </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
       <c r="J107">
         <v>1</v>
       </c>
       <c r="K107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
       <c r="O107">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
       </c>
       <c r="R107">
         <v>0</v>
       </c>
       <c r="S107">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -7705,6 +8678,7 @@
         <v>1</v>
       </c>
       <c r="K108">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L108">
@@ -7717,6 +8691,7 @@
         <v>0</v>
       </c>
       <c r="O108">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P108">
@@ -7729,6 +8704,7 @@
         <v>0</v>
       </c>
       <c r="S108">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T108">
@@ -7767,6 +8743,7 @@
         <v>0</v>
       </c>
       <c r="K109">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L109">
@@ -7779,6 +8756,7 @@
         <v>0</v>
       </c>
       <c r="O109">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P109">
@@ -7791,6 +8769,7 @@
         <v>0</v>
       </c>
       <c r="S109">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T109">
@@ -7829,6 +8808,7 @@
         <v>0</v>
       </c>
       <c r="K110">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L110">
@@ -7841,6 +8821,7 @@
         <v>0</v>
       </c>
       <c r="O110">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P110">
@@ -7853,6 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S110">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T110">
@@ -7891,6 +8873,7 @@
         <v>0</v>
       </c>
       <c r="K111">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L111">
@@ -7903,6 +8886,7 @@
         <v>0</v>
       </c>
       <c r="O111">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P111">
@@ -7915,6 +8899,7 @@
         <v>0</v>
       </c>
       <c r="S111">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T111">
@@ -7953,6 +8938,7 @@
         <v>0</v>
       </c>
       <c r="K112">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L112">
@@ -7965,6 +8951,7 @@
         <v>0</v>
       </c>
       <c r="O112">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P112">
@@ -7977,6 +8964,7 @@
         <v>0</v>
       </c>
       <c r="S112">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T112">
@@ -8008,23 +8996,44 @@
       <c r="H113" t="s">
         <v>187</v>
       </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
       <c r="J113">
         <v>1</v>
       </c>
       <c r="K113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
       </c>
       <c r="R113">
         <v>0</v>
       </c>
       <c r="S113">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -8052,23 +9061,44 @@
       <c r="H114" t="s">
         <v>191</v>
       </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
       <c r="J114">
         <v>1</v>
       </c>
       <c r="K114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
       </c>
       <c r="R114">
         <v>0</v>
       </c>
       <c r="S114">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -8096,23 +9126,44 @@
       <c r="H115" t="s">
         <v>192</v>
       </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
       <c r="J115">
         <v>1</v>
       </c>
       <c r="K115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
       </c>
       <c r="R115">
         <v>0</v>
       </c>
       <c r="S115">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -8140,23 +9191,44 @@
       <c r="H116" t="s">
         <v>192</v>
       </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
       <c r="J116">
         <v>1</v>
       </c>
       <c r="K116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
         <v>0</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -8191,6 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K117">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L117">
@@ -8203,6 +9276,7 @@
         <v>0</v>
       </c>
       <c r="O117">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P117">
@@ -8215,6 +9289,7 @@
         <v>1</v>
       </c>
       <c r="S117">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T117">
@@ -8253,6 +9328,7 @@
         <v>0</v>
       </c>
       <c r="K118">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L118">
@@ -8265,6 +9341,7 @@
         <v>0</v>
       </c>
       <c r="O118">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P118">
@@ -8277,6 +9354,7 @@
         <v>1</v>
       </c>
       <c r="S118">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T118">
@@ -8315,6 +9393,7 @@
         <v>0</v>
       </c>
       <c r="K119">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L119">
@@ -8327,6 +9406,7 @@
         <v>0</v>
       </c>
       <c r="O119">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P119">
@@ -8339,6 +9419,7 @@
         <v>0</v>
       </c>
       <c r="S119">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T119">
@@ -8370,23 +9451,44 @@
       <c r="H120" t="s">
         <v>202</v>
       </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
         <v>0</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
       </c>
       <c r="R120">
         <v>0</v>
       </c>
       <c r="S120">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -8421,6 +9523,7 @@
         <v>0</v>
       </c>
       <c r="K121">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L121">
@@ -8433,6 +9536,7 @@
         <v>0</v>
       </c>
       <c r="O121">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P121">
@@ -8445,6 +9549,7 @@
         <v>0</v>
       </c>
       <c r="S121">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T121">
@@ -8483,6 +9588,7 @@
         <v>0</v>
       </c>
       <c r="K122">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L122">
@@ -8495,6 +9601,7 @@
         <v>0</v>
       </c>
       <c r="O122">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P122">
@@ -8507,6 +9614,7 @@
         <v>0</v>
       </c>
       <c r="S122">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T122">
@@ -8545,6 +9653,7 @@
         <v>0</v>
       </c>
       <c r="K123">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L123">
@@ -8557,6 +9666,7 @@
         <v>0</v>
       </c>
       <c r="O123">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P123">
@@ -8569,6 +9679,7 @@
         <v>0</v>
       </c>
       <c r="S123">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T123">
@@ -8600,23 +9711,44 @@
       <c r="H124" t="s">
         <v>211</v>
       </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
         <v>1</v>
       </c>
       <c r="R124">
         <v>1</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -8644,23 +9776,44 @@
       <c r="H125" t="s">
         <v>211</v>
       </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
         <v>1</v>
       </c>
       <c r="R125">
         <v>1</v>
       </c>
       <c r="S125">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -8688,23 +9841,44 @@
       <c r="H126" t="s">
         <v>212</v>
       </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
       <c r="O126">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
         <v>1</v>
       </c>
       <c r="R126">
         <v>1</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -8739,6 +9913,7 @@
         <v>0</v>
       </c>
       <c r="K127">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L127">
@@ -8751,6 +9926,7 @@
         <v>0</v>
       </c>
       <c r="O127">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P127">
@@ -8763,6 +9939,7 @@
         <v>1</v>
       </c>
       <c r="S127">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T127">
@@ -8801,6 +9978,7 @@
         <v>0</v>
       </c>
       <c r="K128">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L128">
@@ -8813,6 +9991,7 @@
         <v>0</v>
       </c>
       <c r="O128">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P128">
@@ -8825,6 +10004,7 @@
         <v>1</v>
       </c>
       <c r="S128">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T128">
@@ -8863,6 +10043,7 @@
         <v>0</v>
       </c>
       <c r="K129">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L129">
@@ -8875,6 +10056,7 @@
         <v>0</v>
       </c>
       <c r="O129">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P129">
@@ -8887,6 +10069,7 @@
         <v>1</v>
       </c>
       <c r="S129">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T129">
@@ -8925,6 +10108,7 @@
         <v>0</v>
       </c>
       <c r="K130">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L130">
@@ -8937,6 +10121,7 @@
         <v>0</v>
       </c>
       <c r="O130">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P130">
@@ -8949,6 +10134,7 @@
         <v>1</v>
       </c>
       <c r="S130">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T130">
@@ -8984,19 +10170,34 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <f t="shared" ref="K131:K164" si="6">IF(I131=J131, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
       </c>
       <c r="N131">
         <v>0</v>
       </c>
       <c r="O131">
-        <v>1</v>
+        <f t="shared" ref="O131:O164" si="7">IF(M131=N131, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
       </c>
       <c r="R131">
         <v>0</v>
       </c>
       <c r="S131">
-        <v>1</v>
+        <f t="shared" ref="S131:S164" si="8">IF(Q131=R131, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
@@ -9024,23 +10225,44 @@
       <c r="H132" t="s">
         <v>226</v>
       </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
         <v>0</v>
       </c>
       <c r="N132">
         <v>0</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
       </c>
       <c r="R132">
         <v>0</v>
       </c>
       <c r="S132">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
@@ -9068,23 +10290,44 @@
       <c r="H133" t="s">
         <v>228</v>
       </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
       <c r="J133">
         <v>1</v>
       </c>
       <c r="K133">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
         <v>0</v>
       </c>
       <c r="N133">
         <v>0</v>
       </c>
       <c r="O133">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
       </c>
       <c r="R133">
         <v>0</v>
       </c>
       <c r="S133">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -9112,23 +10355,44 @@
       <c r="H134" t="s">
         <v>229</v>
       </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
       <c r="J134">
         <v>1</v>
       </c>
       <c r="K134">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
         <v>0</v>
       </c>
       <c r="O134">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
       </c>
       <c r="R134">
         <v>0</v>
       </c>
       <c r="S134">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -9156,23 +10420,44 @@
       <c r="H135" t="s">
         <v>229</v>
       </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
       <c r="J135">
         <v>1</v>
       </c>
       <c r="K135">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
         <v>0</v>
       </c>
       <c r="N135">
         <v>0</v>
       </c>
       <c r="O135">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
       </c>
       <c r="R135">
         <v>0</v>
       </c>
       <c r="S135">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -9200,23 +10485,44 @@
       <c r="H136" t="s">
         <v>229</v>
       </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
       <c r="J136">
         <v>1</v>
       </c>
       <c r="K136">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
         <v>0</v>
       </c>
       <c r="N136">
         <v>0</v>
       </c>
       <c r="O136">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
       </c>
       <c r="R136">
         <v>0</v>
       </c>
       <c r="S136">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
@@ -9244,23 +10550,44 @@
       <c r="H137" t="s">
         <v>229</v>
       </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
       <c r="J137">
         <v>1</v>
       </c>
       <c r="K137">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
         <v>0</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
       <c r="O137">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
       </c>
       <c r="R137">
         <v>0</v>
       </c>
       <c r="S137">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -9295,6 +10622,7 @@
         <v>0</v>
       </c>
       <c r="K138">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L138">
@@ -9307,6 +10635,7 @@
         <v>0</v>
       </c>
       <c r="O138">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P138">
@@ -9319,6 +10648,7 @@
         <v>1</v>
       </c>
       <c r="S138">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T138">
@@ -9357,6 +10687,7 @@
         <v>0</v>
       </c>
       <c r="K139">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L139">
@@ -9369,6 +10700,7 @@
         <v>0</v>
       </c>
       <c r="O139">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P139">
@@ -9381,6 +10713,7 @@
         <v>0</v>
       </c>
       <c r="S139">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T139">
@@ -9419,6 +10752,7 @@
         <v>0</v>
       </c>
       <c r="K140">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L140">
@@ -9431,6 +10765,7 @@
         <v>0</v>
       </c>
       <c r="O140">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P140">
@@ -9443,6 +10778,7 @@
         <v>0</v>
       </c>
       <c r="S140">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T140">
@@ -9481,6 +10817,7 @@
         <v>0</v>
       </c>
       <c r="K141">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L141">
@@ -9493,6 +10830,7 @@
         <v>0</v>
       </c>
       <c r="O141">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P141">
@@ -9505,6 +10843,7 @@
         <v>0</v>
       </c>
       <c r="S141">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T141">
@@ -9543,6 +10882,7 @@
         <v>0</v>
       </c>
       <c r="K142">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L142">
@@ -9555,6 +10895,7 @@
         <v>0</v>
       </c>
       <c r="O142">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P142">
@@ -9567,6 +10908,7 @@
         <v>0</v>
       </c>
       <c r="S142">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T142">
@@ -9605,6 +10947,7 @@
         <v>0</v>
       </c>
       <c r="K143">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L143">
@@ -9617,6 +10960,7 @@
         <v>0</v>
       </c>
       <c r="O143">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P143">
@@ -9629,6 +10973,7 @@
         <v>0</v>
       </c>
       <c r="S143">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T143">
@@ -9667,6 +11012,7 @@
         <v>0</v>
       </c>
       <c r="K144">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L144">
@@ -9679,6 +11025,7 @@
         <v>0</v>
       </c>
       <c r="O144">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P144">
@@ -9691,6 +11038,7 @@
         <v>0</v>
       </c>
       <c r="S144">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T144">
@@ -9729,6 +11077,7 @@
         <v>0</v>
       </c>
       <c r="K145">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L145">
@@ -9741,6 +11090,7 @@
         <v>0</v>
       </c>
       <c r="O145">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P145">
@@ -9753,6 +11103,7 @@
         <v>0</v>
       </c>
       <c r="S145">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T145">
@@ -9791,6 +11142,7 @@
         <v>0</v>
       </c>
       <c r="K146">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L146">
@@ -9803,6 +11155,7 @@
         <v>0</v>
       </c>
       <c r="O146">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P146">
@@ -9815,6 +11168,7 @@
         <v>1</v>
       </c>
       <c r="S146">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T146">
@@ -9853,6 +11207,7 @@
         <v>0</v>
       </c>
       <c r="K147">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L147">
@@ -9865,6 +11220,7 @@
         <v>0</v>
       </c>
       <c r="O147">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P147">
@@ -9877,6 +11233,7 @@
         <v>1</v>
       </c>
       <c r="S147">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T147">
@@ -9915,6 +11272,7 @@
         <v>0</v>
       </c>
       <c r="K148">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L148">
@@ -9927,6 +11285,7 @@
         <v>0</v>
       </c>
       <c r="O148">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P148">
@@ -9939,6 +11298,7 @@
         <v>1</v>
       </c>
       <c r="S148">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T148">
@@ -9977,6 +11337,7 @@
         <v>0</v>
       </c>
       <c r="K149">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L149">
@@ -9989,6 +11350,7 @@
         <v>0</v>
       </c>
       <c r="O149">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P149">
@@ -10001,6 +11363,7 @@
         <v>1</v>
       </c>
       <c r="S149">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T149">
@@ -10039,6 +11402,7 @@
         <v>0</v>
       </c>
       <c r="K150">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L150">
@@ -10051,6 +11415,7 @@
         <v>0</v>
       </c>
       <c r="O150">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P150">
@@ -10063,6 +11428,7 @@
         <v>1</v>
       </c>
       <c r="S150">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T150">
@@ -10101,6 +11467,7 @@
         <v>0</v>
       </c>
       <c r="K151">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L151">
@@ -10113,6 +11480,7 @@
         <v>0</v>
       </c>
       <c r="O151">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P151">
@@ -10125,6 +11493,7 @@
         <v>1</v>
       </c>
       <c r="S151">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T151">
@@ -10163,6 +11532,7 @@
         <v>0</v>
       </c>
       <c r="K152">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L152">
@@ -10175,6 +11545,7 @@
         <v>0</v>
       </c>
       <c r="O152">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P152">
@@ -10187,6 +11558,7 @@
         <v>1</v>
       </c>
       <c r="S152">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T152">
@@ -10225,6 +11597,7 @@
         <v>0</v>
       </c>
       <c r="K153">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L153">
@@ -10237,6 +11610,7 @@
         <v>0</v>
       </c>
       <c r="O153">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P153">
@@ -10249,6 +11623,7 @@
         <v>1</v>
       </c>
       <c r="S153">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T153">
@@ -10287,6 +11662,7 @@
         <v>1</v>
       </c>
       <c r="K154">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L154">
@@ -10299,6 +11675,7 @@
         <v>0</v>
       </c>
       <c r="O154">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P154">
@@ -10311,6 +11688,7 @@
         <v>0</v>
       </c>
       <c r="S154">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T154">
@@ -10349,6 +11727,7 @@
         <v>1</v>
       </c>
       <c r="K155">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L155">
@@ -10361,6 +11740,7 @@
         <v>0</v>
       </c>
       <c r="O155">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P155">
@@ -10373,6 +11753,7 @@
         <v>0</v>
       </c>
       <c r="S155">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T155">
@@ -10411,6 +11792,7 @@
         <v>1</v>
       </c>
       <c r="K156">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L156">
@@ -10423,6 +11805,7 @@
         <v>0</v>
       </c>
       <c r="O156">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P156">
@@ -10435,6 +11818,7 @@
         <v>0</v>
       </c>
       <c r="S156">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T156">
@@ -10473,6 +11857,7 @@
         <v>1</v>
       </c>
       <c r="K157">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L157">
@@ -10485,6 +11870,7 @@
         <v>0</v>
       </c>
       <c r="O157">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P157">
@@ -10497,6 +11883,7 @@
         <v>0</v>
       </c>
       <c r="S157">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T157">
@@ -10535,6 +11922,7 @@
         <v>1</v>
       </c>
       <c r="K158">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L158">
@@ -10547,6 +11935,7 @@
         <v>0</v>
       </c>
       <c r="O158">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P158">
@@ -10559,6 +11948,7 @@
         <v>0</v>
       </c>
       <c r="S158">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T158">
@@ -10597,6 +11987,7 @@
         <v>1</v>
       </c>
       <c r="K159">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L159">
@@ -10609,6 +12000,7 @@
         <v>0</v>
       </c>
       <c r="O159">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P159">
@@ -10621,6 +12013,7 @@
         <v>0</v>
       </c>
       <c r="S159">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T159">
@@ -10659,6 +12052,7 @@
         <v>1</v>
       </c>
       <c r="K160">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L160">
@@ -10671,6 +12065,7 @@
         <v>0</v>
       </c>
       <c r="O160">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P160">
@@ -10683,6 +12078,7 @@
         <v>0</v>
       </c>
       <c r="S160">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T160">
@@ -10721,6 +12117,7 @@
         <v>1</v>
       </c>
       <c r="K161">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L161">
@@ -10733,6 +12130,7 @@
         <v>0</v>
       </c>
       <c r="O161">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P161">
@@ -10745,6 +12143,7 @@
         <v>0</v>
       </c>
       <c r="S161">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T161">
@@ -10783,6 +12182,7 @@
         <v>1</v>
       </c>
       <c r="K162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L162">
@@ -10795,6 +12195,7 @@
         <v>0</v>
       </c>
       <c r="O162">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P162">
@@ -10807,6 +12208,7 @@
         <v>0</v>
       </c>
       <c r="S162">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T162">
@@ -10845,6 +12247,7 @@
         <v>1</v>
       </c>
       <c r="K163">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L163">
@@ -10857,6 +12260,7 @@
         <v>0</v>
       </c>
       <c r="O163">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P163">
@@ -10869,6 +12273,7 @@
         <v>0</v>
       </c>
       <c r="S163">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T163">
@@ -10907,6 +12312,7 @@
         <v>1</v>
       </c>
       <c r="K164">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L164">
@@ -10919,6 +12325,7 @@
         <v>0</v>
       </c>
       <c r="O164">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P164">
@@ -10931,6 +12338,7 @@
         <v>0</v>
       </c>
       <c r="S164">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T164">
@@ -10938,6 +12346,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U164" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="K165:K1048576 O165:O1048576 S165:S1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>